--- a/results/independent_training_comp.xlsx
+++ b/results/independent_training_comp.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DMolChar\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEEBF5D-0FD8-4AE4-9DC7-ACBDE44B69FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C112A1B1-F5BA-4E81-8DB3-434F7EED039B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -358,9 +359,6 @@
     </r>
   </si>
   <si>
-    <t>Ours multi-task training (5-fold)</t>
-  </si>
-  <si>
     <t>Under training…</t>
   </si>
   <si>
@@ -370,7 +368,16 @@
     <t>Ours independent training (5-fold) AUC</t>
   </si>
   <si>
-    <t>Ours independent training (10-fold) AUC</t>
+    <t>Ours independent training (10-fold) Accuracy</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Ours multi-task training (5-fold) AUC</t>
+  </si>
+  <si>
+    <t>Ours multi-task training (5-fold) Accuracy</t>
   </si>
 </sst>
 </file>
@@ -526,7 +533,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -570,6 +577,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -579,11 +595,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -867,44 +883,781 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="G3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.94687500000000002</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.85520155669120501</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.87552083333333297</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.842694013166433</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.78908333333333303</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.91562500000000002</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.80937499999999996</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.81484374999999998</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.86348464737856401</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.815327380952381</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.93072916666666605</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.91562500000000002</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.87670294774519697</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.83359375000000002</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.88453124999999999</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.84950759973669299</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.91093749999999996</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.8671875</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.76216760018427199</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0.80204166666666599</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.87656250000000002</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.91260348869021202</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.8671875</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.87561401992291099</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0.88437500000000002</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0.60375844594594597</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.73770462525813196</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0.81210937500000002</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0.865234375</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0.90312499999999996</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0.89531249999999996</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="G3:H43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66289E82-BEF3-404B-85AD-2A606BA6645C}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -928,20 +1681,8 @@
       <c r="I2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
@@ -969,12 +1710,8 @@
       <c r="I3" s="5">
         <v>0.98</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="M3" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
@@ -1002,13 +1739,8 @@
       <c r="I4" s="3">
         <v>0.92</v>
       </c>
-      <c r="J4" s="12">
-        <v>0.94687500000000002</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="M4" s="19"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -1036,10 +1768,8 @@
       <c r="I5" s="5">
         <v>0.93</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="M5" s="19"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -1067,10 +1797,8 @@
       <c r="I6" s="3">
         <v>0.9</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1098,13 +1826,8 @@
       <c r="I7" s="5">
         <v>0.87</v>
       </c>
-      <c r="J7" s="12">
-        <v>0.87552083333333297</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="M7" s="19"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
@@ -1132,13 +1855,8 @@
       <c r="I8" s="3">
         <v>0.88</v>
       </c>
-      <c r="J8" s="12">
-        <v>0.91562500000000002</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
@@ -1166,13 +1884,8 @@
       <c r="I9" s="5">
         <v>0.86</v>
       </c>
-      <c r="J9" s="12">
-        <v>0.95</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -1200,13 +1913,8 @@
       <c r="I10" s="3">
         <v>0.86</v>
       </c>
-      <c r="J10" s="11">
-        <v>0.81484374999999998</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -1234,10 +1942,8 @@
       <c r="I11" s="5">
         <v>0.89</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -1265,10 +1971,8 @@
       <c r="I12" s="3">
         <v>0.89</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -1296,13 +2000,8 @@
       <c r="I13" s="5">
         <v>0.83</v>
       </c>
-      <c r="J13" s="12">
-        <v>0.93072916666666605</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1330,10 +2029,8 @@
       <c r="I14" s="3">
         <v>0.87</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="M14" s="19"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
@@ -1361,10 +2058,8 @@
       <c r="I15" s="5">
         <v>0.86</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -1392,13 +2087,8 @@
       <c r="I16" s="3">
         <v>0.88</v>
       </c>
-      <c r="J16" s="12">
-        <v>0.91562500000000002</v>
-      </c>
-      <c r="K16" s="14"/>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1426,10 +2116,8 @@
       <c r="I17" s="5">
         <v>0.95</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1457,13 +2145,8 @@
       <c r="I18" s="3">
         <v>0.84</v>
       </c>
-      <c r="J18" s="12">
-        <v>0.88453124999999999</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
@@ -1491,13 +2174,8 @@
       <c r="I19" s="5">
         <v>0.83</v>
       </c>
-      <c r="J19" s="12">
-        <v>0.91093749999999996</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="M19" s="19"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
@@ -1525,10 +2203,8 @@
       <c r="I20" s="3">
         <v>0.8</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="M20" s="19"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1556,10 +2232,8 @@
       <c r="I21" s="5">
         <v>0.8</v>
       </c>
-      <c r="K21" s="14"/>
-      <c r="M21" s="19"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -1587,10 +2261,8 @@
       <c r="I22" s="3">
         <v>0.83</v>
       </c>
-      <c r="K22" s="14"/>
-      <c r="M22" s="19"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -1618,13 +2290,8 @@
       <c r="I23" s="5">
         <v>0.82</v>
       </c>
-      <c r="J23" s="12">
-        <v>0.8671875</v>
-      </c>
-      <c r="K23" s="14"/>
-      <c r="M23" s="19"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -1652,10 +2319,8 @@
       <c r="I24" s="3">
         <v>0.83</v>
       </c>
-      <c r="K24" s="14"/>
-      <c r="M24" s="19"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
@@ -1683,13 +2348,8 @@
       <c r="I25" s="5">
         <v>0.82</v>
       </c>
-      <c r="J25" s="12">
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="K25" s="14"/>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
@@ -1717,13 +2377,8 @@
       <c r="I26" s="3">
         <v>0.8</v>
       </c>
-      <c r="J26" s="12">
-        <v>0.87656250000000002</v>
-      </c>
-      <c r="K26" s="14"/>
-      <c r="M26" s="19"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
@@ -1751,18 +2406,8 @@
       <c r="I27" s="5">
         <v>0.8</v>
       </c>
-      <c r="J27" s="12">
-        <v>0.8671875</v>
-      </c>
-      <c r="K27" s="12">
-        <v>0.87561401992291099</v>
-      </c>
-      <c r="L27" s="12">
-        <v>0.81874999999999998</v>
-      </c>
-      <c r="M27" s="19"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -1790,10 +2435,8 @@
       <c r="I28" s="3">
         <v>0.85</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="M28" s="19"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>16</v>
       </c>
@@ -1821,13 +2464,8 @@
       <c r="I29" s="5">
         <v>0.85</v>
       </c>
-      <c r="J29" s="12">
-        <v>0.88437500000000002</v>
-      </c>
-      <c r="K29" s="14"/>
-      <c r="M29" s="19"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
@@ -1855,10 +2493,8 @@
       <c r="I30" s="3">
         <v>0.82</v>
       </c>
-      <c r="K30" s="14"/>
-      <c r="M30" s="19"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>14</v>
       </c>
@@ -1886,10 +2522,8 @@
       <c r="I31" s="5">
         <v>0.8</v>
       </c>
-      <c r="K31" s="14"/>
-      <c r="M31" s="19"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
@@ -1917,13 +2551,8 @@
       <c r="I32" s="3">
         <v>0.86</v>
       </c>
-      <c r="J32" s="11">
-        <v>0.60375844594594597</v>
-      </c>
-      <c r="K32" s="14"/>
-      <c r="M32" s="19"/>
-    </row>
-    <row r="33" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
@@ -1951,10 +2580,8 @@
       <c r="I33" s="5">
         <v>0.81</v>
       </c>
-      <c r="K33" s="14"/>
-      <c r="M33" s="19"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -1982,13 +2609,8 @@
       <c r="I34" s="3">
         <v>0.81</v>
       </c>
-      <c r="J34" s="12">
-        <v>0.865234375</v>
-      </c>
-      <c r="K34" s="14"/>
-      <c r="M34" s="19"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>10</v>
       </c>
@@ -2016,10 +2638,8 @@
       <c r="I35" s="5">
         <v>0.82</v>
       </c>
-      <c r="K35" s="14"/>
-      <c r="M35" s="19"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>9</v>
       </c>
@@ -2047,10 +2667,8 @@
       <c r="I36" s="3">
         <v>0.8</v>
       </c>
-      <c r="K36" s="14"/>
-      <c r="M36" s="19"/>
-    </row>
-    <row r="37" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
@@ -2078,10 +2696,8 @@
       <c r="I37" s="5">
         <v>0.76</v>
       </c>
-      <c r="K37" s="14"/>
-      <c r="M37" s="19"/>
-    </row>
-    <row r="38" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -2109,10 +2725,8 @@
       <c r="I38" s="3">
         <v>0.7</v>
       </c>
-      <c r="K38" s="14"/>
-      <c r="M38" s="19"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2140,13 +2754,8 @@
       <c r="I39" s="5">
         <v>0.73</v>
       </c>
-      <c r="J39" s="12">
-        <v>0.90312499999999996</v>
-      </c>
-      <c r="K39" s="14"/>
-      <c r="M39" s="19"/>
-    </row>
-    <row r="40" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>5</v>
       </c>
@@ -2174,10 +2783,8 @@
       <c r="I40" s="3">
         <v>0.7</v>
       </c>
-      <c r="K40" s="14"/>
-      <c r="M40" s="19"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>4</v>
       </c>
@@ -2205,10 +2812,8 @@
       <c r="I41" s="5">
         <v>0.64</v>
       </c>
-      <c r="K41" s="14"/>
-      <c r="M41" s="19"/>
-    </row>
-    <row r="42" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -2236,10 +2841,8 @@
       <c r="I42" s="3">
         <v>0.7</v>
       </c>
-      <c r="K42" s="14"/>
-      <c r="M42" s="19"/>
-    </row>
-    <row r="43" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -2267,44 +2870,38 @@
       <c r="I43" s="1">
         <v>0.64</v>
       </c>
-      <c r="J43" s="12">
-        <v>0.89531249999999996</v>
-      </c>
-      <c r="K43" s="14"/>
-      <c r="M43" s="19"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A44:I44"/>
     <mergeCell ref="A45:I45"/>
-    <mergeCell ref="M3:M43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/independent_training_comp.xlsx
+++ b/results/independent_training_comp.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DMolChar\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C112A1B1-F5BA-4E81-8DB3-434F7EED039B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2012C4E4-8462-48BC-B43E-D43E6E2A101A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="all" sheetId="1" r:id="rId1"/>
+    <sheet name="reference" sheetId="2" r:id="rId2"/>
+    <sheet name="ours" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
   <si>
     <r>
       <rPr>
@@ -362,29 +363,84 @@
     <t>Under training…</t>
   </si>
   <si>
-    <t>Ours independent training (5-fold) Accuracy</t>
-  </si>
-  <si>
-    <t>Ours independent training (5-fold) AUC</t>
-  </si>
-  <si>
-    <t>Ours independent training (10-fold) Accuracy</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Ours multi-task training (5-fold) AUC</t>
-  </si>
-  <si>
-    <t>Ours multi-task training (5-fold) Accuracy</t>
+    <t>CSP Number</t>
+  </si>
+  <si>
+    <t># Compounds (after preprocessing)</t>
+  </si>
+  <si>
+    <t># Compounds (before preprocessing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We filter out the largest 20 phases. But 90127 and 4297 are not reported in the previous publication, so they are not reported in this table either. </t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF231F20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF231F20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ten fold-cross validation in the previous publication, five fold-cross validation in our results.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ours independent training 
+AUC</t>
+  </si>
+  <si>
+    <t>Ours independent training 
+Accuracy</t>
+  </si>
+  <si>
+    <t>Ours transfer learning 
+AUC</t>
+  </si>
+  <si>
+    <t>Ours transfer learning 
+ACC</t>
+  </si>
+  <si>
+    <t>Ours multi-task training 
+AUC</t>
+  </si>
+  <si>
+    <t>Ours multi-task training 
+Accuracy</t>
+  </si>
+  <si>
+    <t>Ours independent training 
+Kappa</t>
+  </si>
+  <si>
+    <t>Encoded number</t>
+  </si>
+  <si>
+    <t>Ours independent training 
+F1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,8 +522,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,8 +577,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFCCFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -527,13 +640,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -565,29 +696,108 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -596,10 +806,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -609,6 +816,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDFCCFA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -883,750 +1095,1594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="13" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+    </row>
+    <row r="2" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="D3" s="8">
         <v>0.96</v>
       </c>
-      <c r="C3" s="5">
+      <c r="E3" s="5">
         <v>0.89</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="Q3" s="49"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="D4" s="7">
         <v>0.94</v>
       </c>
-      <c r="C4" s="3">
+      <c r="E4" s="3">
         <v>0.86</v>
       </c>
-      <c r="D4" s="15">
-        <v>0.94687500000000002</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.85520155669120501</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.76249999999999996</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F4" s="25">
+        <v>90879</v>
+      </c>
+      <c r="G4" s="20">
+        <v>2</v>
+      </c>
+      <c r="H4" s="15">
+        <v>2965</v>
+      </c>
+      <c r="I4" s="15">
+        <v>2963</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0.79054100000000005</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0.69388399999999995</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0.88808299999999996</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0.79054100000000005</v>
+      </c>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="D5" s="8">
         <v>0.92</v>
       </c>
-      <c r="C5" s="5">
+      <c r="E5" s="5">
         <v>0.87</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="D6" s="7">
         <v>0.91</v>
       </c>
-      <c r="C6" s="3">
+      <c r="E6" s="3">
         <v>0.83</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D7" s="8">
         <v>0.9</v>
       </c>
-      <c r="C7" s="5">
+      <c r="E7" s="5">
         <v>0.83</v>
       </c>
-      <c r="D7" s="16">
-        <v>0.87552083333333297</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.842694013166433</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.78908333333333303</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7" s="25">
+        <v>90211</v>
+      </c>
+      <c r="G7" s="20">
+        <v>7</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1949</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1945</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0.85876300000000005</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.78069699999999997</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0.90873199999999998</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0.85876300000000005</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="D8" s="7">
         <v>0.9</v>
       </c>
-      <c r="C8" s="3">
+      <c r="E8" s="3">
         <v>0.82</v>
       </c>
-      <c r="D8" s="15">
-        <v>0.91562500000000002</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.80937499999999996</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F8" s="25">
+        <v>90589</v>
+      </c>
+      <c r="G8" s="20">
+        <v>4</v>
+      </c>
+      <c r="H8" s="15">
+        <v>2773</v>
+      </c>
+      <c r="I8" s="15">
+        <v>2677</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0.81086100000000005</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.69276300000000002</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0.87844599999999995</v>
+      </c>
+      <c r="M8" s="18">
+        <v>0.81086100000000005</v>
+      </c>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="D9" s="8">
         <v>0.9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="E9" s="5">
         <v>0.8</v>
       </c>
-      <c r="D9" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="29">
+        <v>15723</v>
+      </c>
+      <c r="G9" s="20">
+        <v>12</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1679</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1677</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0.77890599999999999</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.650169</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0.84882100000000005</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0.77890599999999999</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="D10" s="7">
         <v>0.88</v>
       </c>
-      <c r="C10" s="3">
+      <c r="E10" s="3">
         <v>0.82</v>
       </c>
-      <c r="D10" s="15">
-        <v>0.81484374999999998</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.86348464737856401</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0.815327380952381</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F10" s="25">
+        <v>90357</v>
+      </c>
+      <c r="G10" s="20">
+        <v>5</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1224</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1224</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0.80327899999999997</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.69825199999999998</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0.91360200000000003</v>
+      </c>
+      <c r="M10" s="18">
+        <v>0.80327899999999997</v>
+      </c>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="D11" s="8">
         <v>0.87</v>
       </c>
-      <c r="C11" s="5">
+      <c r="E11" s="5">
         <v>0.8</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D12" s="7">
         <v>0.86</v>
       </c>
-      <c r="C12" s="3">
+      <c r="E12" s="3">
         <v>0.78</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="14"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D13" s="8">
         <v>0.86</v>
       </c>
-      <c r="C13" s="5">
+      <c r="E13" s="5">
         <v>0.78</v>
       </c>
-      <c r="D13" s="16">
-        <v>0.93072916666666605</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F13" s="22">
+        <v>45172</v>
+      </c>
+      <c r="G13" s="20">
+        <v>16</v>
+      </c>
+      <c r="H13" s="15">
+        <v>2347</v>
+      </c>
+      <c r="I13" s="15">
+        <v>2306</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0.78359400000000001</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0.64906900000000001</v>
+      </c>
+      <c r="L13" s="18">
+        <v>0.82759300000000002</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0.78359400000000001</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="D14" s="7">
         <v>0.86</v>
       </c>
-      <c r="C14" s="3">
+      <c r="E14" s="3">
         <v>0.75</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="D15" s="8">
         <v>0.85</v>
       </c>
-      <c r="C15" s="5">
+      <c r="E15" s="5">
         <v>0.77</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="D16" s="7">
         <v>0.85</v>
       </c>
-      <c r="C16" s="3">
+      <c r="E16" s="3">
         <v>0.78</v>
       </c>
-      <c r="D16" s="16">
-        <v>0.91562500000000002</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0.87670294774519697</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0.83359375000000002</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F16" s="25">
+        <v>90704</v>
+      </c>
+      <c r="G16" s="20">
+        <v>3</v>
+      </c>
+      <c r="H16" s="15">
+        <v>918</v>
+      </c>
+      <c r="I16" s="15">
+        <v>918</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0.74615399999999998</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0.63150899999999999</v>
+      </c>
+      <c r="L16" s="19">
+        <v>0.87226300000000001</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0.74615399999999998</v>
+      </c>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="D17" s="8">
         <v>0.84</v>
       </c>
-      <c r="C17" s="5">
+      <c r="E17" s="5">
         <v>0.79</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D18" s="7">
         <v>0.83</v>
       </c>
-      <c r="C18" s="3">
+      <c r="E18" s="3">
         <v>0.75</v>
       </c>
-      <c r="D18" s="16">
-        <v>0.88453124999999999</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.84950759973669299</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F18" s="25">
+        <v>91119</v>
+      </c>
+      <c r="G18" s="20">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15">
+        <v>917</v>
+      </c>
+      <c r="I18" s="15">
+        <v>917</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0.76703299999999996</v>
+      </c>
+      <c r="K18" s="19">
+        <v>0.67632199999999998</v>
+      </c>
+      <c r="L18" s="19">
+        <v>0.88817500000000005</v>
+      </c>
+      <c r="M18" s="19">
+        <v>0.82187500000000002</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="D19" s="8">
         <v>0.83</v>
       </c>
-      <c r="C19" s="5">
+      <c r="E19" s="5">
         <v>0.74</v>
       </c>
-      <c r="D19" s="16">
-        <v>0.91093749999999996</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F19" s="23">
+        <v>91518</v>
+      </c>
+      <c r="G19" s="20">
+        <v>14</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1277</v>
+      </c>
+      <c r="I19" s="15">
+        <v>1256</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.82187500000000002</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0.68229600000000001</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0.85983299999999996</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="D20" s="7">
         <v>0.82</v>
       </c>
-      <c r="C20" s="3">
+      <c r="E20" s="3">
         <v>0.76</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="D21" s="8">
         <v>0.82</v>
       </c>
-      <c r="C21" s="5">
+      <c r="E21" s="5">
         <v>0.76</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="7">
         <v>0.82</v>
       </c>
-      <c r="C22" s="3">
+      <c r="E22" s="3">
         <v>0.75</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="8">
         <v>0.82</v>
       </c>
-      <c r="C23" s="5">
+      <c r="E23" s="5">
         <v>0.75</v>
       </c>
-      <c r="D23" s="16">
-        <v>0.8671875</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F23" s="25">
+        <v>23735</v>
+      </c>
+      <c r="G23" s="20">
+        <v>11</v>
+      </c>
+      <c r="H23" s="15">
+        <v>16909</v>
+      </c>
+      <c r="I23" s="15">
+        <v>16531</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.77465200000000001</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.52386100000000002</v>
+      </c>
+      <c r="L23" s="18">
+        <v>0.69583600000000001</v>
+      </c>
+      <c r="M23" s="19">
+        <v>0.77465200000000001</v>
+      </c>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="D24" s="7">
         <v>0.82</v>
       </c>
-      <c r="C24" s="3">
+      <c r="E24" s="3">
         <v>0.73</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F24" s="21"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="D25" s="8">
         <v>0.81</v>
       </c>
-      <c r="C25" s="5">
+      <c r="E25" s="5">
         <v>0.74</v>
       </c>
-      <c r="D25" s="16">
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0.76216760018427199</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0.80204166666666599</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F25" s="29">
+        <v>45173</v>
+      </c>
+      <c r="G25" s="20">
+        <v>8</v>
+      </c>
+      <c r="H25" s="15">
+        <v>25162</v>
+      </c>
+      <c r="I25" s="15">
+        <v>24234</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0.79882799999999998</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0.58851100000000001</v>
+      </c>
+      <c r="L25" s="18">
+        <v>0.76381900000000003</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0.79882799999999998</v>
+      </c>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="D26" s="7">
         <v>0.81</v>
       </c>
-      <c r="C26" s="3">
+      <c r="E26" s="3">
         <v>0.73</v>
       </c>
-      <c r="D26" s="16">
-        <v>0.87656250000000002</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0.91260348869021202</v>
-      </c>
-      <c r="F26" s="12">
-        <v>0.85</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F26" s="25">
+        <v>90246</v>
+      </c>
+      <c r="G26" s="20">
+        <v>6</v>
+      </c>
+      <c r="H26" s="15">
+        <v>6914</v>
+      </c>
+      <c r="I26" s="15">
+        <v>6768</v>
+      </c>
+      <c r="J26" s="19">
+        <v>0.81168600000000002</v>
+      </c>
+      <c r="K26" s="19">
+        <v>0.65114000000000005</v>
+      </c>
+      <c r="L26" s="19">
+        <v>0.81046300000000004</v>
+      </c>
+      <c r="M26" s="19">
+        <v>0.81168600000000002</v>
+      </c>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="D27" s="8">
         <v>0.81</v>
       </c>
-      <c r="C27" s="5">
+      <c r="E27" s="5">
         <v>0.73</v>
       </c>
-      <c r="D27" s="16">
-        <v>0.8671875</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0.87561401992291099</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0.81874999999999998</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F27" s="25">
+        <v>91423</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1201</v>
+      </c>
+      <c r="I27" s="15">
+        <v>1168</v>
+      </c>
+      <c r="J27" s="19">
+        <v>0.85172400000000004</v>
+      </c>
+      <c r="K27" s="19">
+        <v>0.74617599999999995</v>
+      </c>
+      <c r="L27" s="19">
+        <v>0.90399099999999999</v>
+      </c>
+      <c r="M27" s="19">
+        <v>0.85172400000000004</v>
+      </c>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="7">
         <v>0.8</v>
       </c>
-      <c r="C28" s="3">
+      <c r="E28" s="3">
         <v>0.75</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="D29" s="8">
         <v>0.8</v>
       </c>
-      <c r="C29" s="5">
+      <c r="E29" s="5">
         <v>0.71</v>
       </c>
-      <c r="D29" s="16">
-        <v>0.88437500000000002</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F29" s="25">
+        <v>44869</v>
+      </c>
+      <c r="G29" s="20">
+        <v>10</v>
+      </c>
+      <c r="H29" s="15">
+        <v>2334</v>
+      </c>
+      <c r="I29" s="15">
+        <v>2315</v>
+      </c>
+      <c r="J29" s="19">
+        <v>0.81731600000000004</v>
+      </c>
+      <c r="K29" s="19">
+        <v>0.63578199999999996</v>
+      </c>
+      <c r="L29" s="19">
+        <v>0.79913599999999996</v>
+      </c>
+      <c r="M29" s="19">
+        <v>0.81731600000000004</v>
+      </c>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="D30" s="7">
         <v>0.8</v>
       </c>
-      <c r="C30" s="3">
+      <c r="E30" s="3">
         <v>0.73</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="D31" s="8">
         <v>0.8</v>
       </c>
-      <c r="C31" s="5">
+      <c r="E31" s="5">
         <v>0.73</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="D32" s="7">
         <v>0.8</v>
       </c>
-      <c r="C32" s="3">
+      <c r="E32" s="3">
         <v>0.71</v>
       </c>
-      <c r="D32" s="17">
-        <v>0.60375844594594597</v>
-      </c>
-      <c r="E32" s="11">
-        <v>0.73770462525813196</v>
-      </c>
-      <c r="F32" s="12">
-        <v>0.81210937500000002</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F32" s="25">
+        <v>45167</v>
+      </c>
+      <c r="G32" s="20">
+        <v>9</v>
+      </c>
+      <c r="H32" s="15">
+        <v>5209</v>
+      </c>
+      <c r="I32" s="15">
+        <v>5122</v>
+      </c>
+      <c r="J32" s="19">
+        <v>0.82968799999999998</v>
+      </c>
+      <c r="K32" s="19">
+        <v>0.62504700000000002</v>
+      </c>
+      <c r="L32" s="18">
+        <v>0.79100499999999996</v>
+      </c>
+      <c r="M32" s="19">
+        <v>0.82968799999999998</v>
+      </c>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+    </row>
+    <row r="33" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="D33" s="8">
         <v>0.8</v>
       </c>
-      <c r="C33" s="5">
+      <c r="E33" s="5">
         <v>0.71</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F33" s="21"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="D34" s="7">
         <v>0.8</v>
       </c>
-      <c r="C34" s="3">
+      <c r="E34" s="3">
         <v>0.74</v>
       </c>
-      <c r="D34" s="16">
-        <v>0.865234375</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F34" s="24">
+        <v>394</v>
+      </c>
+      <c r="G34" s="20">
+        <v>13</v>
+      </c>
+      <c r="H34" s="15">
+        <v>2176</v>
+      </c>
+      <c r="I34" s="15">
+        <v>2176</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.80468799999999996</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0.59078900000000001</v>
+      </c>
+      <c r="L34" s="18">
+        <v>0.77870700000000004</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0.80468799999999996</v>
+      </c>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="D35" s="8">
         <v>0.8</v>
       </c>
-      <c r="C35" s="5">
+      <c r="E35" s="5">
         <v>0.74</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F35" s="21"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="D36" s="7">
         <v>0.8</v>
       </c>
-      <c r="C36" s="3">
+      <c r="E36" s="3">
         <v>0.72</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-    </row>
-    <row r="37" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F36" s="21"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+    </row>
+    <row r="37" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="D37" s="5">
         <v>0.78</v>
       </c>
-      <c r="C37" s="5">
+      <c r="E37" s="5">
         <v>0.76</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F37" s="21"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+    </row>
+    <row r="38" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="D38" s="3">
         <v>0.77</v>
       </c>
-      <c r="C38" s="3">
+      <c r="E38" s="3">
         <v>0.72</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F38" s="21"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="D39" s="5">
         <v>0.75</v>
       </c>
-      <c r="C39" s="5">
+      <c r="E39" s="5">
         <v>0.69</v>
       </c>
-      <c r="D39" s="16">
-        <v>0.90312499999999996</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F39" s="25">
+        <v>2</v>
+      </c>
+      <c r="G39" s="20">
+        <v>15</v>
+      </c>
+      <c r="H39" s="15">
+        <v>1209</v>
+      </c>
+      <c r="I39" s="15">
+        <v>1202</v>
+      </c>
+      <c r="J39" s="19">
+        <v>0.90833299999999995</v>
+      </c>
+      <c r="K39" s="19">
+        <v>0.70494999999999997</v>
+      </c>
+      <c r="L39" s="19">
+        <v>0.77415299999999998</v>
+      </c>
+      <c r="M39" s="19">
+        <v>0.90833299999999995</v>
+      </c>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+    </row>
+    <row r="40" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D40" s="3">
         <v>0.75</v>
       </c>
-      <c r="C40" s="3">
+      <c r="E40" s="3">
         <v>0.65</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F40" s="21"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="D41" s="5">
         <v>0.72</v>
       </c>
-      <c r="C41" s="5">
+      <c r="E41" s="5">
         <v>0.66</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F41" s="21"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+    </row>
+    <row r="42" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D42" s="3">
         <v>0.69</v>
       </c>
-      <c r="C42" s="3">
+      <c r="E42" s="3">
         <v>0.65</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="F42" s="21"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+    </row>
+    <row r="43" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D43" s="1">
         <v>0.63</v>
       </c>
-      <c r="C43" s="1">
+      <c r="E43" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D43" s="16">
-        <v>0.89531249999999996</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="F43" s="23">
+        <v>3575</v>
+      </c>
+      <c r="G43" s="20">
+        <v>17</v>
+      </c>
+      <c r="H43" s="15">
+        <v>1396</v>
+      </c>
+      <c r="I43" s="15">
+        <v>1396</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0.73359399999999997</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0.52026700000000003</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0.76381900000000003</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0.73359399999999997</v>
+      </c>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="G3:H43"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A44:Q44"/>
+    <mergeCell ref="P3:Q42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1635,23 +2691,23 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -2872,30 +3928,30 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2905,4 +3961,488 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81037FDD-0BD4-41FA-BC2F-E095C5616027}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="9" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+    </row>
+    <row r="2" spans="1:15" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="D3" s="25">
+        <v>90357</v>
+      </c>
+      <c r="E3" s="20">
+        <v>5</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1224</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1224</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0.69825199999999998</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0.91360200000000003</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="25">
+        <v>90211</v>
+      </c>
+      <c r="E4" s="20">
+        <v>7</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1949</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1945</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0.78069699999999997</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0.90873199999999998</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.46</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.81</v>
+      </c>
+      <c r="D5" s="33">
+        <v>91423</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0</v>
+      </c>
+      <c r="F5" s="35">
+        <v>1201</v>
+      </c>
+      <c r="G5" s="35">
+        <v>1168</v>
+      </c>
+      <c r="H5" s="36">
+        <v>0.74617599999999995</v>
+      </c>
+      <c r="I5" s="36">
+        <v>0.90399099999999999</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="39">
+        <v>0.52</v>
+      </c>
+      <c r="C6" s="39">
+        <v>0.83</v>
+      </c>
+      <c r="D6" s="40">
+        <v>91119</v>
+      </c>
+      <c r="E6" s="41">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42">
+        <v>917</v>
+      </c>
+      <c r="G6" s="42">
+        <v>917</v>
+      </c>
+      <c r="H6" s="43">
+        <v>0.67632199999999998</v>
+      </c>
+      <c r="I6" s="43">
+        <v>0.88817500000000005</v>
+      </c>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="D7" s="25">
+        <v>90879</v>
+      </c>
+      <c r="E7" s="20">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15">
+        <v>2965</v>
+      </c>
+      <c r="G7" s="15">
+        <v>2963</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0.69388399999999995</v>
+      </c>
+      <c r="I7" s="45">
+        <v>0.88808299999999996</v>
+      </c>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="25">
+        <v>90589</v>
+      </c>
+      <c r="E8" s="20">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2773</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2677</v>
+      </c>
+      <c r="H8" s="30">
+        <v>0.69276300000000002</v>
+      </c>
+      <c r="I8" s="45">
+        <v>0.87844599999999995</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="D9" s="25">
+        <v>90704</v>
+      </c>
+      <c r="E9" s="20">
+        <v>3</v>
+      </c>
+      <c r="F9" s="15">
+        <v>918</v>
+      </c>
+      <c r="G9" s="15">
+        <v>918</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0.63150899999999999</v>
+      </c>
+      <c r="I9" s="30">
+        <v>0.87226300000000001</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="D10" s="25">
+        <v>90246</v>
+      </c>
+      <c r="E10" s="20">
+        <v>6</v>
+      </c>
+      <c r="F10" s="15">
+        <v>6914</v>
+      </c>
+      <c r="G10" s="15">
+        <v>6768</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0.65114000000000005</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0.81046300000000004</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="32">
+        <v>0.47</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="33">
+        <v>44869</v>
+      </c>
+      <c r="E11" s="34">
+        <v>10</v>
+      </c>
+      <c r="F11" s="35">
+        <v>2334</v>
+      </c>
+      <c r="G11" s="35">
+        <v>2315</v>
+      </c>
+      <c r="H11" s="36">
+        <v>0.63578199999999996</v>
+      </c>
+      <c r="I11" s="36">
+        <v>0.79913599999999996</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="25">
+        <v>45167</v>
+      </c>
+      <c r="E12" s="20">
+        <v>9</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5209</v>
+      </c>
+      <c r="G12" s="15">
+        <v>5122</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.62504700000000002</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0.79100499999999996</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="25">
+        <v>2</v>
+      </c>
+      <c r="E13" s="20">
+        <v>15</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1209</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1202</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0.70494999999999997</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0.77415299999999998</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="D14" s="25">
+        <v>23735</v>
+      </c>
+      <c r="E14" s="20">
+        <v>11</v>
+      </c>
+      <c r="F14" s="15">
+        <v>16909</v>
+      </c>
+      <c r="G14" s="15">
+        <v>16531</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.52386100000000002</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.69583600000000001</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K13">
+    <sortCondition descending="1" ref="I3:I13"/>
+    <sortCondition descending="1" ref="H3:H13"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:K16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>